--- a/VDI status.xlsx.xlsx
+++ b/VDI status.xlsx.xlsx
@@ -32,9 +32,6 @@
     <t xml:space="preserve">Pending </t>
   </si>
   <si>
-    <t xml:space="preserve">Approved </t>
-  </si>
-  <si>
     <t xml:space="preserve">VDI Requested </t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>sammahmood@stc.com.sa</t>
+  </si>
+  <si>
+    <t>Approved actual</t>
   </si>
 </sst>
 </file>
@@ -670,6 +670,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -685,7 +686,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,25 +1010,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,11 +1047,11 @@
       <c r="E2" s="4">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>14</v>
+      <c r="F2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,12 +1070,12 @@
       <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>26</v>
@@ -1090,10 +1090,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,15 +1134,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="15">
         <v>4</v>
@@ -1157,15 +1157,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
@@ -1178,15 +1178,15 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -1201,10 +1201,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1236,276 +1236,276 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="23">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="22">
-        <v>11</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="22">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="23">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="22">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="13">
         <v>2</v>
       </c>
